--- a/Medios Integracion/Bases Medio Integracion 2023/2023 - Q3/04. Resultados Marcacion/Marcacion_Peru_twitter.xlsx
+++ b/Medios Integracion/Bases Medio Integracion 2023/2023 - Q3/04. Resultados Marcacion/Marcacion_Peru_twitter.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\Medios Integracion\Bases Medio Integracion 2023\2023 - Q3\04. Resultados Marcacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3848118F-9BAB-4954-B2BD-362DB3B8EC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2EA91D-9A40-45B1-AA8D-AA345FD0AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perú Twitter_01" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Perú Twitter_01'!$A$1:$X$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1244,9 +1247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1284,7 +1287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1390,7 +1393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1532,7 +1535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1542,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.19921875" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1624,13 +1627,13 @@
     </row>
     <row r="2" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1645,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
@@ -1666,16 +1669,16 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
         <v>5</v>
       </c>
       <c r="R2">
-        <v>87.2</v>
+        <v>71.8</v>
       </c>
       <c r="S2" t="s">
         <v>39</v>
@@ -1684,7 +1687,7 @@
         <v>6000000000</v>
       </c>
       <c r="V2">
-        <v>178016</v>
+        <v>45785</v>
       </c>
       <c r="W2" t="s">
         <v>6</v>
@@ -1692,13 +1695,13 @@
     </row>
     <row r="3" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1713,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
@@ -1734,16 +1737,16 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
       <c r="R3">
-        <v>85.8</v>
+        <v>52.9</v>
       </c>
       <c r="S3" t="s">
         <v>39</v>
@@ -1752,7 +1755,7 @@
         <v>6000000000</v>
       </c>
       <c r="V3">
-        <v>140020</v>
+        <v>17222</v>
       </c>
       <c r="W3" t="s">
         <v>6</v>
@@ -1760,13 +1763,13 @@
     </row>
     <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1781,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
         <v>1</v>
@@ -1802,25 +1805,28 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Q4" t="s">
         <v>5</v>
       </c>
       <c r="R4">
-        <v>80.599999999999994</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>326</v>
+      </c>
+      <c r="T4" t="s">
+        <v>327</v>
       </c>
       <c r="U4">
         <v>6000000000</v>
       </c>
       <c r="V4">
-        <v>78348</v>
+        <v>2743</v>
       </c>
       <c r="W4" t="s">
         <v>6</v>
@@ -1828,28 +1834,28 @@
     </row>
     <row r="5" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -1870,16 +1876,16 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
         <v>5</v>
       </c>
       <c r="R5">
-        <v>65.8</v>
+        <v>84</v>
       </c>
       <c r="S5" t="s">
         <v>39</v>
@@ -1888,7 +1894,7 @@
         <v>6000000000</v>
       </c>
       <c r="V5">
-        <v>36969</v>
+        <v>111523</v>
       </c>
       <c r="W5" t="s">
         <v>6</v>
@@ -1896,28 +1902,28 @@
     </row>
     <row r="6" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>58</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
@@ -1938,28 +1944,25 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
         <v>5</v>
       </c>
       <c r="R6">
-        <v>70.3</v>
+        <v>84.3</v>
       </c>
       <c r="S6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" t="s">
-        <v>61</v>
-      </c>
       <c r="U6">
         <v>6000000000</v>
       </c>
       <c r="V6">
-        <v>43107</v>
+        <v>115054</v>
       </c>
       <c r="W6" t="s">
         <v>6</v>
@@ -1967,34 +1970,34 @@
     </row>
     <row r="7" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>311</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>65</v>
+        <v>312</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
         <v>1</v>
@@ -2009,25 +2012,28 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="Q7" t="s">
         <v>5</v>
       </c>
       <c r="R7">
-        <v>97.7</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="S7" t="s">
         <v>39</v>
       </c>
+      <c r="T7" t="s">
+        <v>313</v>
+      </c>
       <c r="U7">
         <v>6000000000</v>
       </c>
       <c r="V7">
-        <v>1207697</v>
+        <v>38377</v>
       </c>
       <c r="W7" t="s">
         <v>6</v>
@@ -2035,13 +2041,13 @@
     </row>
     <row r="8" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2050,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -2077,28 +2083,25 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="s">
         <v>5</v>
       </c>
       <c r="R8">
-        <v>89.3</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="S8" t="s">
         <v>39</v>
       </c>
-      <c r="T8" t="s">
-        <v>72</v>
-      </c>
       <c r="U8">
         <v>6000000000</v>
       </c>
       <c r="V8">
-        <v>189481</v>
+        <v>42153</v>
       </c>
       <c r="W8" t="s">
         <v>6</v>
@@ -2106,13 +2109,13 @@
     </row>
     <row r="9" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2121,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>1</v>
@@ -2166,7 +2169,7 @@
         <v>6000000000</v>
       </c>
       <c r="V9">
-        <v>45790</v>
+        <v>45778</v>
       </c>
       <c r="W9" t="s">
         <v>6</v>
@@ -2174,13 +2177,13 @@
     </row>
     <row r="10" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2189,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
         <v>1</v>
@@ -2225,7 +2228,7 @@
         <v>5</v>
       </c>
       <c r="R10">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="S10" t="s">
         <v>39</v>
@@ -2234,7 +2237,7 @@
         <v>6000000000</v>
       </c>
       <c r="V10">
-        <v>18653</v>
+        <v>17228</v>
       </c>
       <c r="W10" t="s">
         <v>6</v>
@@ -2242,13 +2245,13 @@
     </row>
     <row r="11" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2263,13 +2266,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
         <v>1</v>
@@ -2284,16 +2287,16 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="Q11" t="s">
         <v>5</v>
       </c>
       <c r="R11">
-        <v>83.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="S11" t="s">
         <v>39</v>
@@ -2302,7 +2305,7 @@
         <v>6000000000</v>
       </c>
       <c r="V11">
-        <v>105271</v>
+        <v>52567</v>
       </c>
       <c r="W11" t="s">
         <v>6</v>
@@ -2310,13 +2313,13 @@
     </row>
     <row r="12" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2325,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
@@ -2352,16 +2355,16 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
         <v>5</v>
       </c>
       <c r="R12">
-        <v>87.7</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="S12" t="s">
         <v>39</v>
@@ -2370,7 +2373,7 @@
         <v>6000000000</v>
       </c>
       <c r="V12">
-        <v>160992</v>
+        <v>46214</v>
       </c>
       <c r="W12" t="s">
         <v>6</v>
@@ -2378,16 +2381,16 @@
     </row>
     <row r="13" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2396,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>1</v>
@@ -2420,16 +2423,16 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="Q13" t="s">
         <v>5</v>
       </c>
       <c r="R13">
-        <v>68.3</v>
+        <v>48.6</v>
       </c>
       <c r="S13" t="s">
         <v>39</v>
@@ -2438,7 +2441,7 @@
         <v>6000000000</v>
       </c>
       <c r="V13">
-        <v>41725</v>
+        <v>13656</v>
       </c>
       <c r="W13" t="s">
         <v>6</v>
@@ -2446,13 +2449,13 @@
     </row>
     <row r="14" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2461,19 +2464,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>102</v>
+        <v>286</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>1</v>
@@ -2488,16 +2491,16 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="Q14" t="s">
         <v>5</v>
       </c>
       <c r="R14">
-        <v>79.8</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s">
         <v>39</v>
@@ -2506,7 +2509,7 @@
         <v>6000000000</v>
       </c>
       <c r="V14">
-        <v>66119</v>
+        <v>48885</v>
       </c>
       <c r="W14" t="s">
         <v>6</v>
@@ -2514,13 +2517,13 @@
     </row>
     <row r="15" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2535,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
@@ -2556,16 +2559,16 @@
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="Q15" t="s">
         <v>5</v>
       </c>
       <c r="R15">
-        <v>68.400000000000006</v>
+        <v>52.9</v>
       </c>
       <c r="S15" t="s">
         <v>39</v>
@@ -2574,7 +2577,7 @@
         <v>6000000000</v>
       </c>
       <c r="V15">
-        <v>38903</v>
+        <v>17236</v>
       </c>
       <c r="W15" t="s">
         <v>6</v>
@@ -2582,13 +2585,13 @@
     </row>
     <row r="16" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2597,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>1</v>
@@ -2624,57 +2627,54 @@
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
         <v>5</v>
       </c>
       <c r="R16">
-        <v>79.8</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="S16" t="s">
         <v>39</v>
       </c>
-      <c r="T16" t="s">
-        <v>110</v>
-      </c>
       <c r="U16">
         <v>6000000000</v>
       </c>
       <c r="V16">
-        <v>66115</v>
+        <v>47062</v>
       </c>
       <c r="W16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>114</v>
+      <c r="H17" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
@@ -2695,39 +2695,42 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="Q17" t="s">
         <v>5</v>
       </c>
       <c r="R17">
-        <v>52.9</v>
+        <v>78.5</v>
       </c>
       <c r="S17" t="s">
         <v>39</v>
       </c>
+      <c r="T17" t="s">
+        <v>275</v>
+      </c>
       <c r="U17">
         <v>6000000000</v>
       </c>
       <c r="V17">
-        <v>17251</v>
+        <v>81007</v>
       </c>
       <c r="W17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2742,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -2772,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="R18">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="S18" t="s">
         <v>39</v>
@@ -2781,24 +2784,24 @@
         <v>6000000000</v>
       </c>
       <c r="V18">
-        <v>42508</v>
+        <v>43737</v>
       </c>
       <c r="W18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2807,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="I19" t="s">
         <v>36</v>
@@ -2831,39 +2834,42 @@
         <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="Q19" t="s">
         <v>5</v>
       </c>
       <c r="R19">
-        <v>79.8</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="S19" t="s">
         <v>39</v>
       </c>
+      <c r="T19" t="s">
+        <v>267</v>
+      </c>
       <c r="U19">
         <v>6000000000</v>
       </c>
       <c r="V19">
-        <v>66112</v>
+        <v>38408</v>
       </c>
       <c r="W19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2872,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="I20" t="s">
         <v>36</v>
@@ -2899,16 +2905,16 @@
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="P20" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q20" t="s">
         <v>5</v>
       </c>
       <c r="R20">
-        <v>74.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="S20" t="s">
         <v>39</v>
@@ -2917,21 +2923,21 @@
         <v>6000000000</v>
       </c>
       <c r="V20">
-        <v>64849</v>
+        <v>42386</v>
       </c>
       <c r="W20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2946,82 +2952,82 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
       </c>
       <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>52.9</v>
+      </c>
+      <c r="S21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21">
+        <v>6000000000</v>
+      </c>
+      <c r="V21">
+        <v>17248</v>
+      </c>
+      <c r="W21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
         <v>7</v>
       </c>
-      <c r="K21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" t="s">
-        <v>131</v>
-      </c>
-      <c r="P21" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21">
-        <v>6.1</v>
-      </c>
-      <c r="S21" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21">
-        <v>6000000000</v>
-      </c>
-      <c r="V21">
-        <v>1908</v>
-      </c>
-      <c r="W21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s">
-        <v>0</v>
-      </c>
       <c r="K22" t="s">
         <v>1</v>
       </c>
@@ -3035,16 +3041,16 @@
         <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="Q22" t="s">
         <v>5</v>
       </c>
       <c r="R22">
-        <v>72.599999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="S22" t="s">
         <v>39</v>
@@ -3053,21 +3059,21 @@
         <v>6000000000</v>
       </c>
       <c r="V22">
-        <v>57131</v>
+        <v>47109</v>
       </c>
       <c r="W22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3076,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="I23" t="s">
         <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>1</v>
@@ -3103,16 +3109,16 @@
         <v>4</v>
       </c>
       <c r="O23" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="Q23" t="s">
         <v>5</v>
       </c>
       <c r="R23">
-        <v>6.1</v>
+        <v>52.9</v>
       </c>
       <c r="S23" t="s">
         <v>39</v>
@@ -3121,21 +3127,21 @@
         <v>6000000000</v>
       </c>
       <c r="V23">
-        <v>1907</v>
+        <v>17249</v>
       </c>
       <c r="W23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3150,13 +3156,13 @@
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
         <v>1</v>
@@ -3171,16 +3177,16 @@
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="Q24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>67.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="S24" t="s">
         <v>39</v>
@@ -3189,21 +3195,21 @@
         <v>6000000000</v>
       </c>
       <c r="V24">
-        <v>37524</v>
+        <v>55427</v>
       </c>
       <c r="W24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3212,19 +3218,19 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="I25" t="s">
         <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>1</v>
@@ -3239,42 +3245,39 @@
         <v>4</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
         <v>5</v>
       </c>
       <c r="R25">
-        <v>64.900000000000006</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="S25" t="s">
         <v>39</v>
       </c>
-      <c r="T25" t="s">
-        <v>149</v>
-      </c>
       <c r="U25">
         <v>6000000000</v>
       </c>
       <c r="V25">
-        <v>35453</v>
+        <v>46456</v>
       </c>
       <c r="W25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3289,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="I26" t="s">
         <v>36</v>
@@ -3319,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="R26">
-        <v>79.8</v>
+        <v>92.3</v>
       </c>
       <c r="S26" t="s">
         <v>39</v>
@@ -3328,21 +3331,24 @@
         <v>6000000000</v>
       </c>
       <c r="V26">
-        <v>67299</v>
+        <v>289932</v>
       </c>
       <c r="W26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3351,19 +3357,19 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="I27" t="s">
         <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>1</v>
@@ -3387,33 +3393,30 @@
         <v>5</v>
       </c>
       <c r="R27">
-        <v>70.5</v>
+        <v>75.2</v>
       </c>
       <c r="S27" t="s">
         <v>39</v>
       </c>
-      <c r="T27" t="s">
-        <v>158</v>
-      </c>
       <c r="U27">
         <v>6000000000</v>
       </c>
       <c r="V27">
-        <v>45043</v>
+        <v>66250</v>
       </c>
       <c r="W27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3422,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
@@ -3458,33 +3461,33 @@
         <v>5</v>
       </c>
       <c r="R28">
-        <v>70.400000000000006</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="S28" t="s">
         <v>39</v>
       </c>
       <c r="T28" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="U28">
         <v>6000000000</v>
       </c>
       <c r="V28">
-        <v>44550</v>
+        <v>54231</v>
       </c>
       <c r="W28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3493,19 +3496,19 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="I29" t="s">
         <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>1</v>
@@ -3520,155 +3523,152 @@
         <v>4</v>
       </c>
       <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>81.5</v>
+      </c>
+      <c r="S29" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29">
+        <v>6000000000</v>
+      </c>
+      <c r="V29">
+        <v>87053</v>
+      </c>
+      <c r="W29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>83</v>
+      </c>
+      <c r="S30" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30">
+        <v>6000000000</v>
+      </c>
+      <c r="V30">
+        <v>102543</v>
+      </c>
+      <c r="W30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
         <v>59</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P31" t="s">
         <v>60</v>
       </c>
-      <c r="Q29" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29">
-        <v>70.2</v>
-      </c>
-      <c r="S29" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" t="s">
-        <v>163</v>
-      </c>
-      <c r="U29">
-        <v>6000000000</v>
-      </c>
-      <c r="V29">
-        <v>42485</v>
-      </c>
-      <c r="W29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" t="s">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30">
-        <v>70.5</v>
-      </c>
-      <c r="S30" t="s">
-        <v>39</v>
-      </c>
-      <c r="U30">
-        <v>6000000000</v>
-      </c>
-      <c r="V30">
-        <v>45286</v>
-      </c>
-      <c r="W30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" t="s">
-        <v>176</v>
-      </c>
-      <c r="P31" t="s">
-        <v>177</v>
-      </c>
       <c r="Q31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>74.7</v>
+        <v>70.7</v>
       </c>
       <c r="S31" t="s">
         <v>39</v>
@@ -3677,21 +3677,21 @@
         <v>6000000000</v>
       </c>
       <c r="V31">
-        <v>52544</v>
+        <v>46669</v>
       </c>
       <c r="W31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
         <v>36</v>
@@ -3727,16 +3727,16 @@
         <v>4</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q32" t="s">
         <v>5</v>
       </c>
       <c r="R32">
-        <v>70.2</v>
+        <v>66.8</v>
       </c>
       <c r="S32" t="s">
         <v>39</v>
@@ -3745,7 +3745,7 @@
         <v>6000000000</v>
       </c>
       <c r="V32">
-        <v>42483</v>
+        <v>40705</v>
       </c>
       <c r="W32" t="s">
         <v>6</v>
@@ -3753,16 +3753,16 @@
     </row>
     <row r="33" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3771,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>1</v>
@@ -3795,28 +3795,25 @@
         <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="Q33" t="s">
         <v>5</v>
       </c>
       <c r="R33">
-        <v>68.099999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="S33" t="s">
         <v>39</v>
       </c>
-      <c r="T33" t="s">
-        <v>186</v>
-      </c>
       <c r="U33">
         <v>6000000000</v>
       </c>
       <c r="V33">
-        <v>38423</v>
+        <v>55817</v>
       </c>
       <c r="W33" t="s">
         <v>6</v>
@@ -3824,28 +3821,28 @@
     </row>
     <row r="34" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I34" t="s">
         <v>36</v>
@@ -3866,30 +3863,30 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q34" t="s">
         <v>5</v>
       </c>
       <c r="R34">
-        <v>63.9</v>
+        <v>49.2</v>
       </c>
       <c r="S34" t="s">
         <v>39</v>
       </c>
-      <c r="T34" t="s">
-        <v>193</v>
-      </c>
       <c r="U34">
         <v>6000000000</v>
       </c>
       <c r="V34">
-        <v>32620</v>
+        <v>14461</v>
       </c>
       <c r="W34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3963,28 +3960,28 @@
     </row>
     <row r="36" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
         <v>36</v>
@@ -4005,45 +4002,45 @@
         <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q36" t="s">
         <v>5</v>
       </c>
       <c r="R36">
-        <v>49.2</v>
+        <v>63.9</v>
       </c>
       <c r="S36" t="s">
         <v>39</v>
       </c>
+      <c r="T36" t="s">
+        <v>193</v>
+      </c>
       <c r="U36">
         <v>6000000000</v>
       </c>
       <c r="V36">
-        <v>14461</v>
+        <v>32620</v>
       </c>
       <c r="W36" t="s">
-        <v>6</v>
-      </c>
-      <c r="X36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4052,16 +4049,16 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K37" t="s">
         <v>1</v>
@@ -4076,25 +4073,28 @@
         <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Q37" t="s">
         <v>5</v>
       </c>
       <c r="R37">
-        <v>74.599999999999994</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="S37" t="s">
         <v>39</v>
       </c>
+      <c r="T37" t="s">
+        <v>186</v>
+      </c>
       <c r="U37">
         <v>6000000000</v>
       </c>
       <c r="V37">
-        <v>55817</v>
+        <v>38423</v>
       </c>
       <c r="W37" t="s">
         <v>6</v>
@@ -4102,13 +4102,13 @@
     </row>
     <row r="38" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="I38" t="s">
         <v>36</v>
@@ -4144,16 +4144,16 @@
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q38" t="s">
         <v>5</v>
       </c>
       <c r="R38">
-        <v>66.8</v>
+        <v>70.2</v>
       </c>
       <c r="S38" t="s">
         <v>39</v>
@@ -4162,7 +4162,7 @@
         <v>6000000000</v>
       </c>
       <c r="V38">
-        <v>40705</v>
+        <v>42483</v>
       </c>
       <c r="W38" t="s">
         <v>6</v>
@@ -4170,13 +4170,13 @@
     </row>
     <row r="39" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
@@ -4212,16 +4212,16 @@
         <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="P39" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="Q39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R39">
-        <v>70.7</v>
+        <v>74.7</v>
       </c>
       <c r="S39" t="s">
         <v>39</v>
@@ -4230,7 +4230,7 @@
         <v>6000000000</v>
       </c>
       <c r="V39">
-        <v>46669</v>
+        <v>52544</v>
       </c>
       <c r="W39" t="s">
         <v>6</v>
@@ -4238,13 +4238,13 @@
     </row>
     <row r="40" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4259,13 +4259,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="I40" t="s">
         <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K40" t="s">
         <v>1</v>
@@ -4280,16 +4280,16 @@
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P40" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q40" t="s">
         <v>5</v>
       </c>
       <c r="R40">
-        <v>83</v>
+        <v>70.5</v>
       </c>
       <c r="S40" t="s">
         <v>39</v>
@@ -4298,7 +4298,7 @@
         <v>6000000000</v>
       </c>
       <c r="V40">
-        <v>102543</v>
+        <v>45286</v>
       </c>
       <c r="W40" t="s">
         <v>6</v>
@@ -4306,13 +4306,13 @@
     </row>
     <row r="41" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="I41" t="s">
         <v>36</v>
       </c>
       <c r="J41" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K41" t="s">
         <v>1</v>
@@ -4348,25 +4348,28 @@
         <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P41" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q41" t="s">
         <v>5</v>
       </c>
       <c r="R41">
-        <v>81.5</v>
+        <v>70.2</v>
       </c>
       <c r="S41" t="s">
         <v>39</v>
       </c>
+      <c r="T41" t="s">
+        <v>163</v>
+      </c>
       <c r="U41">
         <v>6000000000</v>
       </c>
       <c r="V41">
-        <v>87053</v>
+        <v>42485</v>
       </c>
       <c r="W41" t="s">
         <v>6</v>
@@ -4374,13 +4377,13 @@
     </row>
     <row r="42" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4389,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
         <v>36</v>
@@ -4425,19 +4428,19 @@
         <v>5</v>
       </c>
       <c r="R42">
-        <v>72.099999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="S42" t="s">
         <v>39</v>
       </c>
       <c r="T42" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="U42">
         <v>6000000000</v>
       </c>
       <c r="V42">
-        <v>54231</v>
+        <v>44550</v>
       </c>
       <c r="W42" t="s">
         <v>6</v>
@@ -4445,13 +4448,13 @@
     </row>
     <row r="43" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4460,19 +4463,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="I43" t="s">
         <v>36</v>
       </c>
       <c r="J43" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K43" t="s">
         <v>1</v>
@@ -4496,16 +4499,19 @@
         <v>5</v>
       </c>
       <c r="R43">
-        <v>75.2</v>
+        <v>70.5</v>
       </c>
       <c r="S43" t="s">
         <v>39</v>
       </c>
+      <c r="T43" t="s">
+        <v>158</v>
+      </c>
       <c r="U43">
         <v>6000000000</v>
       </c>
       <c r="V43">
-        <v>66250</v>
+        <v>45043</v>
       </c>
       <c r="W43" t="s">
         <v>6</v>
@@ -4513,13 +4519,13 @@
     </row>
     <row r="44" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4534,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="I44" t="s">
         <v>36</v>
@@ -4564,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="R44">
-        <v>92.3</v>
+        <v>79.8</v>
       </c>
       <c r="S44" t="s">
         <v>39</v>
@@ -4573,24 +4579,21 @@
         <v>6000000000</v>
       </c>
       <c r="V44">
-        <v>289932</v>
+        <v>67299</v>
       </c>
       <c r="W44" t="s">
-        <v>6</v>
-      </c>
-      <c r="X44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4599,19 +4602,19 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="I45" t="s">
         <v>36</v>
       </c>
       <c r="J45" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K45" t="s">
         <v>1</v>
@@ -4626,25 +4629,28 @@
         <v>4</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="Q45" t="s">
         <v>5</v>
       </c>
       <c r="R45">
-        <v>71.900000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="S45" t="s">
         <v>39</v>
       </c>
+      <c r="T45" t="s">
+        <v>149</v>
+      </c>
       <c r="U45">
         <v>6000000000</v>
       </c>
       <c r="V45">
-        <v>46456</v>
+        <v>35453</v>
       </c>
       <c r="W45" t="s">
         <v>6</v>
@@ -4652,13 +4658,13 @@
     </row>
     <row r="46" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4673,13 +4679,13 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c r="I46" t="s">
         <v>36</v>
       </c>
       <c r="J46" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K46" t="s">
         <v>1</v>
@@ -4694,16 +4700,16 @@
         <v>4</v>
       </c>
       <c r="O46" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="Q46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R46">
-        <v>74.900000000000006</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="S46" t="s">
         <v>39</v>
@@ -4712,7 +4718,7 @@
         <v>6000000000</v>
       </c>
       <c r="V46">
-        <v>55427</v>
+        <v>37524</v>
       </c>
       <c r="W46" t="s">
         <v>6</v>
@@ -4720,13 +4726,13 @@
     </row>
     <row r="47" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4735,19 +4741,19 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="I47" t="s">
         <v>36</v>
       </c>
       <c r="J47" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K47" t="s">
         <v>1</v>
@@ -4762,16 +4768,16 @@
         <v>4</v>
       </c>
       <c r="O47" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Q47" t="s">
         <v>5</v>
       </c>
       <c r="R47">
-        <v>52.9</v>
+        <v>6.1</v>
       </c>
       <c r="S47" t="s">
         <v>39</v>
@@ -4780,7 +4786,7 @@
         <v>6000000000</v>
       </c>
       <c r="V47">
-        <v>17249</v>
+        <v>1907</v>
       </c>
       <c r="W47" t="s">
         <v>6</v>
@@ -4788,13 +4794,13 @@
     </row>
     <row r="48" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4803,19 +4809,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="I48" t="s">
         <v>36</v>
       </c>
       <c r="J48" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>1</v>
@@ -4830,16 +4836,16 @@
         <v>4</v>
       </c>
       <c r="O48" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="P48" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="Q48" t="s">
         <v>5</v>
       </c>
       <c r="R48">
-        <v>71.900000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="S48" t="s">
         <v>39</v>
@@ -4848,7 +4854,7 @@
         <v>6000000000</v>
       </c>
       <c r="V48">
-        <v>47109</v>
+        <v>57131</v>
       </c>
       <c r="W48" t="s">
         <v>6</v>
@@ -4856,13 +4862,13 @@
     </row>
     <row r="49" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>128</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4877,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
       </c>
       <c r="J49" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K49" t="s">
         <v>1</v>
@@ -4898,16 +4904,16 @@
         <v>4</v>
       </c>
       <c r="O49" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="P49" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Q49" t="s">
         <v>5</v>
       </c>
       <c r="R49">
-        <v>52.9</v>
+        <v>6.1</v>
       </c>
       <c r="S49" t="s">
         <v>39</v>
@@ -4916,7 +4922,7 @@
         <v>6000000000</v>
       </c>
       <c r="V49">
-        <v>17248</v>
+        <v>1908</v>
       </c>
       <c r="W49" t="s">
         <v>6</v>
@@ -4924,13 +4930,13 @@
     </row>
     <row r="50" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4939,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="I50" t="s">
         <v>36</v>
@@ -4966,16 +4972,16 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P50" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Q50" t="s">
         <v>5</v>
       </c>
       <c r="R50">
-        <v>70.2</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="S50" t="s">
         <v>39</v>
@@ -4984,7 +4990,7 @@
         <v>6000000000</v>
       </c>
       <c r="V50">
-        <v>42386</v>
+        <v>64849</v>
       </c>
       <c r="W50" t="s">
         <v>6</v>
@@ -4992,16 +4998,16 @@
     </row>
     <row r="51" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5010,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="I51" t="s">
         <v>36</v>
@@ -5034,28 +5040,25 @@
         <v>4</v>
       </c>
       <c r="O51" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="Q51" t="s">
         <v>5</v>
       </c>
       <c r="R51">
-        <v>68.099999999999994</v>
+        <v>79.8</v>
       </c>
       <c r="S51" t="s">
         <v>39</v>
       </c>
-      <c r="T51" t="s">
-        <v>267</v>
-      </c>
       <c r="U51">
         <v>6000000000</v>
       </c>
       <c r="V51">
-        <v>38408</v>
+        <v>66112</v>
       </c>
       <c r="W51" t="s">
         <v>6</v>
@@ -5063,13 +5066,13 @@
     </row>
     <row r="52" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>269</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5084,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>270</v>
+        <v>118</v>
       </c>
       <c r="I52" t="s">
         <v>36</v>
@@ -5114,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="R52">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="S52" t="s">
         <v>39</v>
@@ -5123,7 +5126,7 @@
         <v>6000000000</v>
       </c>
       <c r="V52">
-        <v>43737</v>
+        <v>42508</v>
       </c>
       <c r="W52" t="s">
         <v>6</v>
@@ -5131,28 +5134,28 @@
     </row>
     <row r="53" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>274</v>
+      <c r="H53" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="I53" t="s">
         <v>36</v>
@@ -5173,28 +5176,25 @@
         <v>4</v>
       </c>
       <c r="O53" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="Q53" t="s">
         <v>5</v>
       </c>
       <c r="R53">
-        <v>78.5</v>
+        <v>52.9</v>
       </c>
       <c r="S53" t="s">
         <v>39</v>
       </c>
-      <c r="T53" t="s">
-        <v>275</v>
-      </c>
       <c r="U53">
         <v>6000000000</v>
       </c>
       <c r="V53">
-        <v>81007</v>
+        <v>17251</v>
       </c>
       <c r="W53" t="s">
         <v>6</v>
@@ -5202,13 +5202,13 @@
     </row>
     <row r="54" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5217,19 +5217,19 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>279</v>
+        <v>109</v>
       </c>
       <c r="I54" t="s">
         <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K54" t="s">
         <v>1</v>
@@ -5244,25 +5244,28 @@
         <v>4</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="Q54" t="s">
         <v>5</v>
       </c>
       <c r="R54">
-        <v>71.900000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="S54" t="s">
         <v>39</v>
       </c>
+      <c r="T54" t="s">
+        <v>110</v>
+      </c>
       <c r="U54">
         <v>6000000000</v>
       </c>
       <c r="V54">
-        <v>47062</v>
+        <v>66115</v>
       </c>
       <c r="W54" t="s">
         <v>6</v>
@@ -5270,13 +5273,13 @@
     </row>
     <row r="55" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5291,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="I55" t="s">
         <v>36</v>
@@ -5312,16 +5315,16 @@
         <v>4</v>
       </c>
       <c r="O55" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="P55" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="Q55" t="s">
         <v>5</v>
       </c>
       <c r="R55">
-        <v>52.9</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="S55" t="s">
         <v>39</v>
@@ -5330,7 +5333,7 @@
         <v>6000000000</v>
       </c>
       <c r="V55">
-        <v>17236</v>
+        <v>38903</v>
       </c>
       <c r="W55" t="s">
         <v>6</v>
@@ -5338,13 +5341,13 @@
     </row>
     <row r="56" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5353,19 +5356,19 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="I56" t="s">
         <v>36</v>
       </c>
       <c r="J56" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K56" t="s">
         <v>1</v>
@@ -5380,16 +5383,16 @@
         <v>4</v>
       </c>
       <c r="O56" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="Q56" t="s">
         <v>5</v>
       </c>
       <c r="R56">
-        <v>72</v>
+        <v>79.8</v>
       </c>
       <c r="S56" t="s">
         <v>39</v>
@@ -5398,7 +5401,7 @@
         <v>6000000000</v>
       </c>
       <c r="V56">
-        <v>48885</v>
+        <v>66119</v>
       </c>
       <c r="W56" t="s">
         <v>6</v>
@@ -5406,16 +5409,16 @@
     </row>
     <row r="57" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5424,16 +5427,16 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s">
         <v>36</v>
       </c>
       <c r="J57" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K57" t="s">
         <v>1</v>
@@ -5448,16 +5451,16 @@
         <v>4</v>
       </c>
       <c r="O57" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="Q57" t="s">
         <v>5</v>
       </c>
       <c r="R57">
-        <v>48.6</v>
+        <v>68.3</v>
       </c>
       <c r="S57" t="s">
         <v>39</v>
@@ -5466,7 +5469,7 @@
         <v>6000000000</v>
       </c>
       <c r="V57">
-        <v>13656</v>
+        <v>41725</v>
       </c>
       <c r="W57" t="s">
         <v>6</v>
@@ -5474,13 +5477,13 @@
     </row>
     <row r="58" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5489,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
         <v>36</v>
@@ -5516,16 +5519,16 @@
         <v>4</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q58" t="s">
         <v>5</v>
       </c>
       <c r="R58">
-        <v>71.900000000000006</v>
+        <v>87.7</v>
       </c>
       <c r="S58" t="s">
         <v>39</v>
@@ -5534,7 +5537,7 @@
         <v>6000000000</v>
       </c>
       <c r="V58">
-        <v>46214</v>
+        <v>160992</v>
       </c>
       <c r="W58" t="s">
         <v>6</v>
@@ -5542,13 +5545,13 @@
     </row>
     <row r="59" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5563,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s">
         <v>36</v>
       </c>
       <c r="J59" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
         <v>1</v>
@@ -5584,16 +5587,16 @@
         <v>4</v>
       </c>
       <c r="O59" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="Q59" t="s">
         <v>5</v>
       </c>
       <c r="R59">
-        <v>72.400000000000006</v>
+        <v>83.5</v>
       </c>
       <c r="S59" t="s">
         <v>39</v>
@@ -5602,7 +5605,7 @@
         <v>6000000000</v>
       </c>
       <c r="V59">
-        <v>52567</v>
+        <v>105271</v>
       </c>
       <c r="W59" t="s">
         <v>6</v>
@@ -5610,13 +5613,13 @@
     </row>
     <row r="60" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5625,19 +5628,19 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
         <v>36</v>
       </c>
       <c r="J60" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
         <v>1</v>
@@ -5661,7 +5664,7 @@
         <v>5</v>
       </c>
       <c r="R60">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="S60" t="s">
         <v>39</v>
@@ -5670,7 +5673,7 @@
         <v>6000000000</v>
       </c>
       <c r="V60">
-        <v>17228</v>
+        <v>18653</v>
       </c>
       <c r="W60" t="s">
         <v>6</v>
@@ -5678,13 +5681,13 @@
     </row>
     <row r="61" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5693,19 +5696,19 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s">
         <v>36</v>
       </c>
       <c r="J61" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K61" t="s">
         <v>1</v>
@@ -5738,7 +5741,7 @@
         <v>6000000000</v>
       </c>
       <c r="V61">
-        <v>45778</v>
+        <v>45790</v>
       </c>
       <c r="W61" t="s">
         <v>6</v>
@@ -5746,13 +5749,13 @@
     </row>
     <row r="62" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>67</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5761,13 +5764,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
         <v>36</v>
@@ -5788,25 +5791,28 @@
         <v>4</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P62" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q62" t="s">
         <v>5</v>
       </c>
       <c r="R62">
-        <v>70.099999999999994</v>
+        <v>89.3</v>
       </c>
       <c r="S62" t="s">
         <v>39</v>
       </c>
+      <c r="T62" t="s">
+        <v>72</v>
+      </c>
       <c r="U62">
         <v>6000000000</v>
       </c>
       <c r="V62">
-        <v>42153</v>
+        <v>189481</v>
       </c>
       <c r="W62" t="s">
         <v>6</v>
@@ -5814,34 +5820,34 @@
     </row>
     <row r="63" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="I63" t="s">
         <v>36</v>
       </c>
       <c r="J63" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K63" t="s">
         <v>1</v>
@@ -5856,28 +5862,25 @@
         <v>4</v>
       </c>
       <c r="O63" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="Q63" t="s">
         <v>5</v>
       </c>
       <c r="R63">
-        <v>68.099999999999994</v>
+        <v>97.7</v>
       </c>
       <c r="S63" t="s">
         <v>39</v>
       </c>
-      <c r="T63" t="s">
-        <v>313</v>
-      </c>
       <c r="U63">
         <v>6000000000</v>
       </c>
       <c r="V63">
-        <v>38377</v>
+        <v>1207697</v>
       </c>
       <c r="W63" t="s">
         <v>6</v>
@@ -5885,28 +5888,28 @@
     </row>
     <row r="64" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>57</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="I64" t="s">
         <v>36</v>
@@ -5927,25 +5930,28 @@
         <v>4</v>
       </c>
       <c r="O64" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P64" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q64" t="s">
         <v>5</v>
       </c>
       <c r="R64">
-        <v>84.3</v>
+        <v>70.3</v>
       </c>
       <c r="S64" t="s">
         <v>39</v>
       </c>
+      <c r="T64" t="s">
+        <v>61</v>
+      </c>
       <c r="U64">
         <v>6000000000</v>
       </c>
       <c r="V64">
-        <v>115054</v>
+        <v>43107</v>
       </c>
       <c r="W64" t="s">
         <v>6</v>
@@ -5953,28 +5959,28 @@
     </row>
     <row r="65" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="I65" t="s">
         <v>36</v>
@@ -5995,16 +6001,16 @@
         <v>4</v>
       </c>
       <c r="O65" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="Q65" t="s">
         <v>5</v>
       </c>
       <c r="R65">
-        <v>84</v>
+        <v>65.8</v>
       </c>
       <c r="S65" t="s">
         <v>39</v>
@@ -6013,7 +6019,7 @@
         <v>6000000000</v>
       </c>
       <c r="V65">
-        <v>111523</v>
+        <v>36969</v>
       </c>
       <c r="W65" t="s">
         <v>6</v>
@@ -6021,13 +6027,13 @@
     </row>
     <row r="66" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -6042,13 +6048,13 @@
         <v>1</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s">
         <v>36</v>
       </c>
       <c r="J66" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
         <v>1</v>
@@ -6063,28 +6069,25 @@
         <v>4</v>
       </c>
       <c r="O66" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Q66" t="s">
         <v>5</v>
       </c>
       <c r="R66">
-        <v>19.899999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="S66" t="s">
-        <v>326</v>
-      </c>
-      <c r="T66" t="s">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="U66">
         <v>6000000000</v>
       </c>
       <c r="V66">
-        <v>2743</v>
+        <v>78348</v>
       </c>
       <c r="W66" t="s">
         <v>6</v>
@@ -6092,13 +6095,13 @@
     </row>
     <row r="67" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6113,13 +6116,13 @@
         <v>1</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="I67" t="s">
         <v>36</v>
       </c>
       <c r="J67" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>1</v>
@@ -6134,16 +6137,16 @@
         <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="P67" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="Q67" t="s">
         <v>5</v>
       </c>
       <c r="R67">
-        <v>52.9</v>
+        <v>85.8</v>
       </c>
       <c r="S67" t="s">
         <v>39</v>
@@ -6152,7 +6155,7 @@
         <v>6000000000</v>
       </c>
       <c r="V67">
-        <v>17222</v>
+        <v>140020</v>
       </c>
       <c r="W67" t="s">
         <v>6</v>
@@ -6160,13 +6163,13 @@
     </row>
     <row r="68" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>332</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6181,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="I68" t="s">
         <v>36</v>
@@ -6202,16 +6205,16 @@
         <v>4</v>
       </c>
       <c r="O68" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="P68" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q68" t="s">
         <v>5</v>
       </c>
       <c r="R68">
-        <v>71.8</v>
+        <v>87.2</v>
       </c>
       <c r="S68" t="s">
         <v>39</v>
@@ -6220,81 +6223,86 @@
         <v>6000000000</v>
       </c>
       <c r="V68">
-        <v>45785</v>
+        <v>178016</v>
       </c>
       <c r="W68" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X68">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H54" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H53" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H16" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="H5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H7" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H8" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H10" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="H11" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H12" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H13" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H14" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H15" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H17" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H18" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H19" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H20" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H21" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H22" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="H23" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H24" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H25" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H26" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="H27" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="H28" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="H29" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="H30" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="H31" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="H32" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="H33" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="H34" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="H16" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H17" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H54" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H68" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H67" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H66" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H65" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H64" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H63" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H62" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H61" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H60" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H59" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H58" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="H57" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H56" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H55" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H53" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H52" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H51" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H50" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H49" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H48" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H47" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H46" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="H45" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H44" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="H43" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="H42" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="H41" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="H40" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="H39" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="H38" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="H37" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="H36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
     <hyperlink ref="H35" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="H36" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="H37" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="H38" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H39" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="H40" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="H41" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="H42" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="H43" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="H44" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="H45" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="H46" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="H47" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="H48" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="H49" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="H50" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="H51" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="H52" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="H55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="H56" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="H57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="H58" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="H59" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="H60" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="H61" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="H64" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="H65" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="H66" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="H67" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="H68" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="H34" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="H33" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="H32" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H31" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="H30" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="H29" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="H28" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="H27" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="H26" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="H25" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="H24" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="H23" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="H22" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="H21" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="H20" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="H19" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="H18" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="H15" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="H14" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="H13" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="H12" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="H11" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="H10" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="H9" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="H8" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="H7" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="H6" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="H5" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="H4" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="H3" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="H2" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
